--- a/Tester Results/SIGNIFICANT_RECORDER_SPLIT.xlsx
+++ b/Tester Results/SIGNIFICANT_RECORDER_SPLIT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="E2" t="n">
-        <v>0.007113408326616479</v>
+        <v>0.003796243109817216</v>
       </c>
     </row>
     <row r="3">
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>103.5</v>
+        <v>117</v>
       </c>
       <c r="E3" t="n">
-        <v>1.62479325171163e-05</v>
+        <v>5.320819204107739e-05</v>
       </c>
     </row>
     <row r="4">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>94</v>
+        <v>96.5</v>
       </c>
       <c r="E4" t="n">
-        <v>2.060878491314584e-05</v>
+        <v>2.42211988201396e-05</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03107944569381346</v>
+        <v>0.02128732872601864</v>
       </c>
     </row>
     <row r="6">
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01163445170501903</v>
+        <v>0.004082955523083316</v>
       </c>
     </row>
     <row r="7">
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001988977628350087</v>
+        <v>0.001055247138706311</v>
       </c>
     </row>
     <row r="8">
@@ -606,19 +606,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>recording_order</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>502.5</v>
       </c>
       <c r="E8" t="n">
-        <v>3.0733934721872e-10</v>
+        <v>0.0007912346167715557</v>
       </c>
     </row>
     <row r="9">
@@ -634,14 +634,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>479.5</v>
+        <v>74</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003827183649254287</v>
+        <v>4.690517337587929e-06</v>
       </c>
     </row>
     <row r="10">
@@ -657,14 +657,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="E10" t="n">
-        <v>5.58618703577025e-06</v>
+        <v>0.00224929649066349</v>
       </c>
     </row>
     <row r="11">
@@ -675,19 +675,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="E11" t="n">
-        <v>0.004082955523083316</v>
+        <v>0.0209255287683412</v>
       </c>
     </row>
     <row r="12">
@@ -698,19 +698,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>recording_order</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>214.5</v>
       </c>
       <c r="E12" t="n">
-        <v>3.0733934721872e-10</v>
+        <v>0.04378610867337551</v>
       </c>
     </row>
     <row r="13">
@@ -726,83 +726,83 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>205.5</v>
+        <v>216</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02532331028336432</v>
+        <v>0.04854570503465683</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>216.5</v>
+        <v>432.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0480074779741179</v>
+        <v>0.04331093597596605</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>212</v>
+        <v>545</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04076053620183384</v>
+        <v>5.209092727288747e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>recording_order</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="E16" t="n">
-        <v>3.0733934721872e-10</v>
+        <v>4.815798946078741e-05</v>
       </c>
     </row>
     <row r="17">
@@ -818,14 +818,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="E17" t="n">
-        <v>6.579704265068806e-05</v>
+        <v>0.0003113649793192373</v>
       </c>
     </row>
     <row r="18">
@@ -841,14 +841,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="E18" t="n">
-        <v>6.088790825143172e-05</v>
+        <v>1.019339788703042e-05</v>
       </c>
     </row>
     <row r="19">
@@ -864,14 +864,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>523</v>
+        <v>570</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0002701550280446244</v>
+        <v>6.644275977904411e-06</v>
       </c>
     </row>
     <row r="20">
@@ -887,14 +887,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="E20" t="n">
-        <v>6.093290260793157e-06</v>
+        <v>4.29807925114501e-07</v>
       </c>
     </row>
     <row r="21">
@@ -905,19 +905,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>562</v>
+        <v>43.5</v>
       </c>
       <c r="E21" t="n">
-        <v>1.312674343949274e-05</v>
+        <v>1.5788836966277e-08</v>
       </c>
     </row>
     <row r="22">
@@ -928,19 +928,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="E22" t="n">
-        <v>1.616656022567341e-07</v>
+        <v>6.698394003504188e-08</v>
       </c>
     </row>
     <row r="23">
@@ -951,19 +951,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>recording_order</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E23" t="n">
-        <v>3.0733934721872e-10</v>
+        <v>3.182896018248396e-07</v>
       </c>
     </row>
     <row r="24">
@@ -979,14 +979,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>46</v>
+        <v>648</v>
       </c>
       <c r="E24" t="n">
-        <v>2.11692997069081e-08</v>
+        <v>2.91805720444704e-09</v>
       </c>
     </row>
     <row r="25">
@@ -1002,14 +1002,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>610</v>
+        <v>648</v>
       </c>
       <c r="E25" t="n">
-        <v>1.172428960309931e-07</v>
+        <v>2.920070438311818e-09</v>
       </c>
     </row>
     <row r="26">
@@ -1025,14 +1025,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>604.5</v>
+        <v>648</v>
       </c>
       <c r="E26" t="n">
-        <v>2.263896817511685e-07</v>
+        <v>2.920070438311818e-09</v>
       </c>
     </row>
     <row r="27">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1089,19 +1089,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>648</v>
+        <v>435.5</v>
       </c>
       <c r="E29" t="n">
-        <v>2.920070438311818e-09</v>
+        <v>0.03388501915684748</v>
       </c>
     </row>
     <row r="30">
@@ -1112,19 +1112,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>648</v>
+        <v>432</v>
       </c>
       <c r="E30" t="n">
-        <v>2.920070438311818e-09</v>
+        <v>0.04854570503465683</v>
       </c>
     </row>
     <row r="31">
@@ -1135,19 +1135,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>648</v>
+        <v>556</v>
       </c>
       <c r="E31" t="n">
-        <v>2.920070438311818e-09</v>
+        <v>2.157979248336353e-05</v>
       </c>
     </row>
     <row r="32">
@@ -1158,19 +1158,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>recording_order</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="E32" t="n">
-        <v>3.0733934721872e-10</v>
+        <v>2.17521601125654e-07</v>
       </c>
     </row>
     <row r="33">
@@ -1186,83 +1186,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>557</v>
+        <v>595</v>
       </c>
       <c r="E33" t="n">
-        <v>1.987997424299874e-05</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>622</v>
-      </c>
-      <c r="E34" t="n">
-        <v>4.789711871151461e-08</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>606</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2.399830096728318e-07</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>recording_order</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>3.0733934721872e-10</v>
+        <v>6.922988977550939e-07</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/SIGNIFICANT_RECORDER_SPLIT.xlsx
+++ b/Tester Results/SIGNIFICANT_RECORDER_SPLIT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="E2" t="n">
-        <v>0.003796243109817216</v>
+        <v>0.007113408326616479</v>
       </c>
     </row>
     <row r="3">
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>117</v>
+        <v>103.5</v>
       </c>
       <c r="E3" t="n">
-        <v>5.320819204107739e-05</v>
+        <v>1.62479325171163e-05</v>
       </c>
     </row>
     <row r="4">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>96.5</v>
+        <v>94</v>
       </c>
       <c r="E4" t="n">
-        <v>2.42211988201396e-05</v>
+        <v>2.060878491314584e-05</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02128732872601864</v>
+        <v>0.03107944569381346</v>
       </c>
     </row>
     <row r="6">
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004082955523083316</v>
+        <v>0.01163445170501903</v>
       </c>
     </row>
     <row r="7">
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001055247138706311</v>
+        <v>0.001988977628350087</v>
       </c>
     </row>
     <row r="8">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>502.5</v>
+        <v>479.5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0007912346167715557</v>
+        <v>0.003827183649254287</v>
       </c>
     </row>
     <row r="9">
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" t="n">
-        <v>4.690517337587929e-06</v>
+        <v>5.58618703577025e-06</v>
       </c>
     </row>
     <row r="10">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00224929649066349</v>
+        <v>0.004082955523083316</v>
       </c>
     </row>
     <row r="11">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>205</v>
+        <v>205.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0209255287683412</v>
+        <v>0.02532331028336432</v>
       </c>
     </row>
     <row r="12">
@@ -707,10 +707,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>214.5</v>
+        <v>216.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04378610867337551</v>
+        <v>0.0480074779741179</v>
       </c>
     </row>
     <row r="13">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E13" t="n">
-        <v>0.04854570503465683</v>
+        <v>0.04076053620183384</v>
       </c>
     </row>
     <row r="14">
@@ -749,14 +749,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>432.5</v>
+        <v>542</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04331093597596605</v>
+        <v>6.579704265068806e-05</v>
       </c>
     </row>
     <row r="15">
@@ -772,14 +772,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E15" t="n">
-        <v>5.209092727288747e-05</v>
+        <v>6.088790825143172e-05</v>
       </c>
     </row>
     <row r="16">
@@ -795,14 +795,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="E16" t="n">
-        <v>4.815798946078741e-05</v>
+        <v>0.0002701550280446244</v>
       </c>
     </row>
     <row r="17">
@@ -818,14 +818,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>521</v>
+        <v>571</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0003113649793192373</v>
+        <v>6.093290260793157e-06</v>
       </c>
     </row>
     <row r="18">
@@ -841,14 +841,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E18" t="n">
-        <v>1.019339788703042e-05</v>
+        <v>1.312674343949274e-05</v>
       </c>
     </row>
     <row r="19">
@@ -864,14 +864,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="E19" t="n">
-        <v>6.644275977904411e-06</v>
+        <v>1.616656022567341e-07</v>
       </c>
     </row>
     <row r="20">
@@ -882,19 +882,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>600</v>
+        <v>46</v>
       </c>
       <c r="E20" t="n">
-        <v>4.29807925114501e-07</v>
+        <v>2.11692997069081e-08</v>
       </c>
     </row>
     <row r="21">
@@ -910,14 +910,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>43.5</v>
+        <v>610</v>
       </c>
       <c r="E21" t="n">
-        <v>1.5788836966277e-08</v>
+        <v>1.172428960309931e-07</v>
       </c>
     </row>
     <row r="22">
@@ -933,14 +933,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>614</v>
+        <v>604.5</v>
       </c>
       <c r="E22" t="n">
-        <v>6.698394003504188e-08</v>
+        <v>2.263896817511685e-07</v>
       </c>
     </row>
     <row r="23">
@@ -956,14 +956,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>600</v>
+        <v>648</v>
       </c>
       <c r="E23" t="n">
-        <v>3.182896018248396e-07</v>
+        <v>2.920070438311818e-09</v>
       </c>
     </row>
     <row r="24">
@@ -979,14 +979,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>648</v>
       </c>
       <c r="E24" t="n">
-        <v>2.91805720444704e-09</v>
+        <v>2.920070438311818e-09</v>
       </c>
     </row>
     <row r="25">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>648</v>
+        <v>557</v>
       </c>
       <c r="E28" t="n">
-        <v>2.920070438311818e-09</v>
+        <v>1.987997424299874e-05</v>
       </c>
     </row>
     <row r="29">
@@ -1094,14 +1094,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>435.5</v>
+        <v>622</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03388501915684748</v>
+        <v>4.789711871151461e-08</v>
       </c>
     </row>
     <row r="30">
@@ -1117,83 +1117,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>432</v>
+        <v>606</v>
       </c>
       <c r="E30" t="n">
-        <v>0.04854570503465683</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>556</v>
-      </c>
-      <c r="E31" t="n">
-        <v>2.157979248336353e-05</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>607</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2.17521601125654e-07</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>595</v>
-      </c>
-      <c r="E33" t="n">
-        <v>6.922988977550939e-07</v>
+        <v>2.399830096728318e-07</v>
       </c>
     </row>
   </sheetData>
